--- a/public/excel_template/leader_template.xlsx
+++ b/public/excel_template/leader_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87932E57-D5A4-4290-8EA8-41E6C298F50E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A5525-ACF0-4A0A-B23D-43405B29B0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E1BC6671-A83B-45D9-AE46-91A64E764410}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{E1BC6671-A83B-45D9-AE46-91A64E764410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
     <t>nama_apps</t>
   </si>
   <si>
-    <t>leader1</t>
-  </si>
-  <si>
     <t>pass1</t>
   </si>
   <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>newleader1</t>
+  </si>
+  <si>
+    <t>newleader2</t>
+  </si>
+  <si>
     <t>apps1</t>
-  </si>
-  <si>
-    <t>leader2</t>
-  </si>
-  <si>
-    <t>pass2</t>
   </si>
   <si>
     <t>apps2</t>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252422"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +423,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -432,14 +444,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
